--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Csf1-Csf1r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Csf1-Csf1r.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.557829</v>
+        <v>23.6953005</v>
       </c>
       <c r="H2">
-        <v>29.115658</v>
+        <v>47.390601</v>
       </c>
       <c r="I2">
-        <v>0.05742693398771809</v>
+        <v>0.02691589916356554</v>
       </c>
       <c r="J2">
-        <v>0.04006068679199273</v>
+        <v>0.01836099079767181</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9656040000000001</v>
+        <v>1.3231235</v>
       </c>
       <c r="N2">
-        <v>1.931208</v>
+        <v>2.646247</v>
       </c>
       <c r="O2">
-        <v>0.002170982161762564</v>
+        <v>0.003784488539009737</v>
       </c>
       <c r="P2">
-        <v>0.001450469595059265</v>
+        <v>0.002537298145238945</v>
       </c>
       <c r="Q2">
-        <v>14.057097913716</v>
+        <v>31.35180893111175</v>
       </c>
       <c r="R2">
-        <v>56.228391654864</v>
+        <v>125.407235724447</v>
       </c>
       <c r="S2">
-        <v>0.0001246728492920523</v>
+        <v>0.0001018629119016556</v>
       </c>
       <c r="T2">
-        <v>5.810680814897774E-05</v>
+        <v>4.658730789568202E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.557829</v>
+        <v>23.6953005</v>
       </c>
       <c r="H3">
-        <v>29.115658</v>
+        <v>47.390601</v>
       </c>
       <c r="I3">
-        <v>0.05742693398771809</v>
+        <v>0.02691589916356554</v>
       </c>
       <c r="J3">
-        <v>0.04006068679199273</v>
+        <v>0.01836099079767181</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>1.140421</v>
       </c>
       <c r="N3">
-        <v>3.421263</v>
+        <v>3.421263000000001</v>
       </c>
       <c r="O3">
-        <v>0.002564025882141565</v>
+        <v>0.003261910323674263</v>
       </c>
       <c r="P3">
-        <v>0.00256960304545199</v>
+        <v>0.003280405897210136</v>
       </c>
       <c r="Q3">
-        <v>16.602053906009</v>
+        <v>27.0226182915105</v>
       </c>
       <c r="R3">
-        <v>99.61232343605398</v>
+        <v>162.135709749063</v>
       </c>
       <c r="S3">
-        <v>0.0001472441450765443</v>
+        <v>8.779724935260992E-05</v>
       </c>
       <c r="T3">
-        <v>0.0001029400627836028</v>
+        <v>6.023150249130364E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.557829</v>
+        <v>23.6953005</v>
       </c>
       <c r="H4">
-        <v>29.115658</v>
+        <v>47.390601</v>
       </c>
       <c r="I4">
-        <v>0.05742693398771809</v>
+        <v>0.02691589916356554</v>
       </c>
       <c r="J4">
-        <v>0.04006068679199273</v>
+        <v>0.01836099079767181</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>181.6731516666667</v>
+        <v>167.436325</v>
       </c>
       <c r="N4">
-        <v>545.019455</v>
+        <v>502.308975</v>
       </c>
       <c r="O4">
-        <v>0.4084585104654889</v>
+        <v>0.47891285505579</v>
       </c>
       <c r="P4">
-        <v>0.4093469725649807</v>
+        <v>0.4816283705203542</v>
       </c>
       <c r="Q4">
-        <v>2644.766675854398</v>
+        <v>3967.454035490663</v>
       </c>
       <c r="R4">
-        <v>15868.60005512639</v>
+        <v>23804.72421294398</v>
       </c>
       <c r="S4">
-        <v>0.02345651991722329</v>
+        <v>0.01289037011481693</v>
       </c>
       <c r="T4">
-        <v>0.01639872085717613</v>
+        <v>0.008843174079021892</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.557829</v>
+        <v>23.6953005</v>
       </c>
       <c r="H5">
-        <v>29.115658</v>
+        <v>47.390601</v>
       </c>
       <c r="I5">
-        <v>0.05742693398771809</v>
+        <v>0.02691589916356554</v>
       </c>
       <c r="J5">
-        <v>0.04006068679199273</v>
+        <v>0.01836099079767181</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.9304815</v>
+        <v>4.5905135</v>
       </c>
       <c r="N5">
-        <v>3.860963</v>
+        <v>9.181027</v>
       </c>
       <c r="O5">
-        <v>0.004340330922523763</v>
+        <v>0.01313010140695066</v>
       </c>
       <c r="P5">
-        <v>0.00289984788751331</v>
+        <v>0.008803034175754825</v>
       </c>
       <c r="Q5">
-        <v>28.1036195646635</v>
+        <v>108.7735968318068</v>
       </c>
       <c r="R5">
-        <v>112.414478258654</v>
+        <v>435.094387327227</v>
       </c>
       <c r="S5">
-        <v>0.0002492518973726237</v>
+        <v>0.0003534084854768739</v>
       </c>
       <c r="T5">
-        <v>0.0001161698979660925</v>
+        <v>0.0001616324294926248</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.557829</v>
+        <v>23.6953005</v>
       </c>
       <c r="H6">
-        <v>29.115658</v>
+        <v>47.390601</v>
       </c>
       <c r="I6">
-        <v>0.05742693398771809</v>
+        <v>0.02691589916356554</v>
       </c>
       <c r="J6">
-        <v>0.04006068679199273</v>
+        <v>0.01836099079767181</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.738101</v>
+        <v>62.54697533333334</v>
       </c>
       <c r="N6">
-        <v>8.214302999999999</v>
+        <v>187.640926</v>
       </c>
       <c r="O6">
-        <v>0.006156114129709732</v>
+        <v>0.1789011466418099</v>
       </c>
       <c r="P6">
-        <v>0.006169504655171325</v>
+        <v>0.1799155458695723</v>
       </c>
       <c r="Q6">
-        <v>39.860806142729</v>
+        <v>1482.069375889421</v>
       </c>
       <c r="R6">
-        <v>239.1648368563739</v>
+        <v>8892.416255336528</v>
       </c>
       <c r="S6">
-        <v>0.0003535267597476993</v>
+        <v>0.004815285223257208</v>
       </c>
       <c r="T6">
-        <v>0.0002471545936525595</v>
+        <v>0.003303427682069318</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.557829</v>
+        <v>23.6953005</v>
       </c>
       <c r="H7">
-        <v>29.115658</v>
+        <v>47.390601</v>
       </c>
       <c r="I7">
-        <v>0.05742693398771809</v>
+        <v>0.02691589916356554</v>
       </c>
       <c r="J7">
-        <v>0.04006068679199273</v>
+        <v>0.01836099079767181</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>256.3297323333333</v>
+        <v>112.5801623333333</v>
       </c>
       <c r="N7">
-        <v>768.9891969999999</v>
+        <v>337.740487</v>
       </c>
       <c r="O7">
-        <v>0.5763100364383734</v>
+        <v>0.3220094980327655</v>
       </c>
       <c r="P7">
-        <v>0.5775636022518233</v>
+        <v>0.3238353453918694</v>
       </c>
       <c r="Q7">
-        <v>3731.604410924437</v>
+        <v>2667.620776827115</v>
       </c>
       <c r="R7">
-        <v>22389.62646554662</v>
+        <v>16005.72466096269</v>
       </c>
       <c r="S7">
-        <v>0.03309571841900587</v>
+        <v>0.008667175178760273</v>
       </c>
       <c r="T7">
-        <v>0.02313759457226536</v>
+        <v>0.005945937796700986</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,13 +918,13 @@
         <v>199.4383063333333</v>
       </c>
       <c r="H8">
-        <v>598.3149189999999</v>
+        <v>598.314919</v>
       </c>
       <c r="I8">
-        <v>0.7867334100727953</v>
+        <v>0.2265454005371358</v>
       </c>
       <c r="J8">
-        <v>0.823230804985946</v>
+        <v>0.2318108335842534</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.9656040000000001</v>
+        <v>1.3231235</v>
       </c>
       <c r="N8">
-        <v>1.931208</v>
+        <v>2.646247</v>
       </c>
       <c r="O8">
-        <v>0.002170982161762564</v>
+        <v>0.003784488539009737</v>
       </c>
       <c r="P8">
-        <v>0.001450469595059265</v>
+        <v>0.002537298145238945</v>
       </c>
       <c r="Q8">
-        <v>192.578426348692</v>
+        <v>263.8815099098322</v>
       </c>
       <c r="R8">
-        <v>1155.470558092152</v>
+        <v>1583.289059458993</v>
       </c>
       <c r="S8">
-        <v>0.001707984199330671</v>
+        <v>0.0008573584718981609</v>
       </c>
       <c r="T8">
-        <v>0.001194071252348278</v>
+        <v>0.0005881731980996199</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,13 +980,13 @@
         <v>199.4383063333333</v>
       </c>
       <c r="H9">
-        <v>598.3149189999999</v>
+        <v>598.314919</v>
       </c>
       <c r="I9">
-        <v>0.7867334100727953</v>
+        <v>0.2265454005371358</v>
       </c>
       <c r="J9">
-        <v>0.823230804985946</v>
+        <v>0.2318108335842534</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>1.140421</v>
       </c>
       <c r="N9">
-        <v>3.421263</v>
+        <v>3.421263000000001</v>
       </c>
       <c r="O9">
-        <v>0.002564025882141565</v>
+        <v>0.003261910323674263</v>
       </c>
       <c r="P9">
-        <v>0.00256960304545199</v>
+        <v>0.003280405897210136</v>
       </c>
       <c r="Q9">
-        <v>227.4436327469663</v>
+        <v>227.4436327469664</v>
       </c>
       <c r="R9">
         <v>2046.992694722697</v>
       </c>
       <c r="S9">
-        <v>0.00201720482577214</v>
+        <v>0.0007389707807930044</v>
       </c>
       <c r="T9">
-        <v>0.00211537638360178</v>
+        <v>0.0007604336255269823</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,13 +1042,13 @@
         <v>199.4383063333333</v>
       </c>
       <c r="H10">
-        <v>598.3149189999999</v>
+        <v>598.314919</v>
       </c>
       <c r="I10">
-        <v>0.7867334100727953</v>
+        <v>0.2265454005371358</v>
       </c>
       <c r="J10">
-        <v>0.823230804985946</v>
+        <v>0.2318108335842534</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>181.6731516666667</v>
+        <v>167.436325</v>
       </c>
       <c r="N10">
-        <v>545.019455</v>
+        <v>502.308975</v>
       </c>
       <c r="O10">
-        <v>0.4084585104654889</v>
+        <v>0.47891285505579</v>
       </c>
       <c r="P10">
-        <v>0.4093469725649807</v>
+        <v>0.4816283705203542</v>
       </c>
       <c r="Q10">
-        <v>36232.58567463879</v>
+        <v>33393.21707667756</v>
       </c>
       <c r="R10">
-        <v>326093.2710717491</v>
+        <v>300538.9536900981</v>
       </c>
       <c r="S10">
-        <v>0.3213479568117686</v>
+        <v>0.1084955045709972</v>
       </c>
       <c r="T10">
-        <v>0.336987037743229</v>
+        <v>0.111646674048149</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,13 +1104,13 @@
         <v>199.4383063333333</v>
       </c>
       <c r="H11">
-        <v>598.3149189999999</v>
+        <v>598.314919</v>
       </c>
       <c r="I11">
-        <v>0.7867334100727953</v>
+        <v>0.2265454005371358</v>
       </c>
       <c r="J11">
-        <v>0.823230804985946</v>
+        <v>0.2318108335842534</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.9304815</v>
+        <v>4.5905135</v>
       </c>
       <c r="N11">
-        <v>3.860963</v>
+        <v>9.181027</v>
       </c>
       <c r="O11">
-        <v>0.004340330922523763</v>
+        <v>0.01313010140695066</v>
       </c>
       <c r="P11">
-        <v>0.00289984788751331</v>
+        <v>0.008803034175754825</v>
       </c>
       <c r="Q11">
-        <v>385.0119607678328</v>
+        <v>915.5242376403022</v>
       </c>
       <c r="R11">
-        <v>2310.071764606997</v>
+        <v>5493.145425841813</v>
       </c>
       <c r="S11">
-        <v>0.003414683347521521</v>
+        <v>0.002974564082330847</v>
       </c>
       <c r="T11">
-        <v>0.002387244110774378</v>
+        <v>0.002040638690352397</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1166,13 +1166,13 @@
         <v>199.4383063333333</v>
       </c>
       <c r="H12">
-        <v>598.3149189999999</v>
+        <v>598.314919</v>
       </c>
       <c r="I12">
-        <v>0.7867334100727953</v>
+        <v>0.2265454005371358</v>
       </c>
       <c r="J12">
-        <v>0.823230804985946</v>
+        <v>0.2318108335842534</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.738101</v>
+        <v>62.54697533333334</v>
       </c>
       <c r="N12">
-        <v>8.214302999999999</v>
+        <v>187.640926</v>
       </c>
       <c r="O12">
-        <v>0.006156114129709732</v>
+        <v>0.1789011466418099</v>
       </c>
       <c r="P12">
-        <v>0.006169504655171325</v>
+        <v>0.1799155458695723</v>
       </c>
       <c r="Q12">
-        <v>546.0822260096063</v>
+        <v>12474.26282675278</v>
       </c>
       <c r="R12">
-        <v>4914.740034086456</v>
+        <v>112268.365440775</v>
       </c>
       <c r="S12">
-        <v>0.004843220662063856</v>
+        <v>0.0405292319225217</v>
       </c>
       <c r="T12">
-        <v>0.005078926283641231</v>
+        <v>0.04170637266279154</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1228,13 +1228,13 @@
         <v>199.4383063333333</v>
       </c>
       <c r="H13">
-        <v>598.3149189999999</v>
+        <v>598.314919</v>
       </c>
       <c r="I13">
-        <v>0.7867334100727953</v>
+        <v>0.2265454005371358</v>
       </c>
       <c r="J13">
-        <v>0.823230804985946</v>
+        <v>0.2318108335842534</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>256.3297323333333</v>
+        <v>112.5801623333333</v>
       </c>
       <c r="N13">
-        <v>768.9891969999999</v>
+        <v>337.740487</v>
       </c>
       <c r="O13">
-        <v>0.5763100364383734</v>
+        <v>0.3220094980327655</v>
       </c>
       <c r="P13">
-        <v>0.5775636022518233</v>
+        <v>0.3238353453918694</v>
       </c>
       <c r="Q13">
-        <v>51121.96767943666</v>
+        <v>22452.79690249173</v>
       </c>
       <c r="R13">
-        <v>460097.7091149299</v>
+        <v>202075.1721224256</v>
       </c>
       <c r="S13">
-        <v>0.4534023602263385</v>
+        <v>0.0729497707085949</v>
       </c>
       <c r="T13">
-        <v>0.4754681492123513</v>
+        <v>0.07506854135933386</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.803291</v>
+        <v>13.57363233333333</v>
       </c>
       <c r="H14">
-        <v>14.409873</v>
+        <v>40.720897</v>
       </c>
       <c r="I14">
-        <v>0.01894776172881275</v>
+        <v>0.01541852230012077</v>
       </c>
       <c r="J14">
-        <v>0.01982676843385757</v>
+        <v>0.01577688400891859</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.9656040000000001</v>
+        <v>1.3231235</v>
       </c>
       <c r="N14">
-        <v>1.931208</v>
+        <v>2.646247</v>
       </c>
       <c r="O14">
-        <v>0.002170982161762564</v>
+        <v>0.003784488539009737</v>
       </c>
       <c r="P14">
-        <v>0.001450469595059265</v>
+        <v>0.002537298145238945</v>
       </c>
       <c r="Q14">
-        <v>4.638077002764001</v>
+        <v>17.95959192059317</v>
       </c>
       <c r="R14">
-        <v>27.828462016584</v>
+        <v>107.757551523559</v>
       </c>
       <c r="S14">
-        <v>4.113525271857987E-05</v>
+        <v>5.835122093327311E-05</v>
       </c>
       <c r="T14">
-        <v>2.875812478159121E-05</v>
+        <v>4.003065853347913E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.803291</v>
+        <v>13.57363233333333</v>
       </c>
       <c r="H15">
-        <v>14.409873</v>
+        <v>40.720897</v>
       </c>
       <c r="I15">
-        <v>0.01894776172881275</v>
+        <v>0.01541852230012077</v>
       </c>
       <c r="J15">
-        <v>0.01982676843385757</v>
+        <v>0.01577688400891859</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>1.140421</v>
       </c>
       <c r="N15">
-        <v>3.421263</v>
+        <v>3.421263000000001</v>
       </c>
       <c r="O15">
-        <v>0.002564025882141565</v>
+        <v>0.003261910323674263</v>
       </c>
       <c r="P15">
-        <v>0.00256960304545199</v>
+        <v>0.003280405897210136</v>
       </c>
       <c r="Q15">
-        <v>5.477773925510999</v>
+        <v>15.47965535921234</v>
       </c>
       <c r="R15">
-        <v>49.29996532959899</v>
+        <v>139.316898232911</v>
       </c>
       <c r="S15">
-        <v>4.85825514813273E-05</v>
+        <v>5.02938370665658E-05</v>
       </c>
       <c r="T15">
-        <v>5.094692454911179E-05</v>
+        <v>5.175458334245684E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.803291</v>
+        <v>13.57363233333333</v>
       </c>
       <c r="H16">
-        <v>14.409873</v>
+        <v>40.720897</v>
       </c>
       <c r="I16">
-        <v>0.01894776172881275</v>
+        <v>0.01541852230012077</v>
       </c>
       <c r="J16">
-        <v>0.01982676843385757</v>
+        <v>0.01577688400891859</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>181.6731516666667</v>
+        <v>167.436325</v>
       </c>
       <c r="N16">
-        <v>545.019455</v>
+        <v>502.308975</v>
       </c>
       <c r="O16">
-        <v>0.4084585104654889</v>
+        <v>0.47891285505579</v>
       </c>
       <c r="P16">
-        <v>0.4093469725649807</v>
+        <v>0.4816283705203542</v>
       </c>
       <c r="Q16">
-        <v>872.629014342135</v>
+        <v>2272.719114794509</v>
       </c>
       <c r="R16">
-        <v>7853.661129079214</v>
+        <v>20454.47203315058</v>
       </c>
       <c r="S16">
-        <v>0.007739374532405853</v>
+        <v>0.007384128535492205</v>
       </c>
       <c r="T16">
-        <v>0.008116027634146521</v>
+        <v>0.007598594937104096</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.803291</v>
+        <v>13.57363233333333</v>
       </c>
       <c r="H17">
-        <v>14.409873</v>
+        <v>40.720897</v>
       </c>
       <c r="I17">
-        <v>0.01894776172881275</v>
+        <v>0.01541852230012077</v>
       </c>
       <c r="J17">
-        <v>0.01982676843385757</v>
+        <v>0.01577688400891859</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.9304815</v>
+        <v>4.5905135</v>
       </c>
       <c r="N17">
-        <v>3.860963</v>
+        <v>9.181027</v>
       </c>
       <c r="O17">
-        <v>0.004340330922523763</v>
+        <v>0.01313010140695066</v>
       </c>
       <c r="P17">
-        <v>0.00289984788751331</v>
+        <v>0.008803034175754825</v>
       </c>
       <c r="Q17">
-        <v>9.2726644146165</v>
+        <v>62.30994247020318</v>
       </c>
       <c r="R17">
-        <v>55.63598648769899</v>
+        <v>373.859654821219</v>
       </c>
       <c r="S17">
-        <v>8.22395561441783E-05</v>
+        <v>0.0002024467613459158</v>
       </c>
       <c r="T17">
-        <v>5.749461255913747E-05</v>
+        <v>0.0001388844491174302</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.803291</v>
+        <v>13.57363233333333</v>
       </c>
       <c r="H18">
-        <v>14.409873</v>
+        <v>40.720897</v>
       </c>
       <c r="I18">
-        <v>0.01894776172881275</v>
+        <v>0.01541852230012077</v>
       </c>
       <c r="J18">
-        <v>0.01982676843385757</v>
+        <v>0.01577688400891859</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.738101</v>
+        <v>62.54697533333334</v>
       </c>
       <c r="N18">
-        <v>8.214302999999999</v>
+        <v>187.640926</v>
       </c>
       <c r="O18">
-        <v>0.006156114129709732</v>
+        <v>0.1789011466418099</v>
       </c>
       <c r="P18">
-        <v>0.006169504655171325</v>
+        <v>0.1799155458695723</v>
       </c>
       <c r="Q18">
-        <v>13.151895890391</v>
+        <v>848.9896467367358</v>
       </c>
       <c r="R18">
-        <v>118.367063013519</v>
+        <v>7640.906820630623</v>
       </c>
       <c r="S18">
-        <v>0.0001166445837051175</v>
+        <v>0.002758391319013922</v>
       </c>
       <c r="T18">
-        <v>0.0001223213401496882</v>
+        <v>0.002838506698585516</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.803291</v>
+        <v>13.57363233333333</v>
       </c>
       <c r="H19">
-        <v>14.409873</v>
+        <v>40.720897</v>
       </c>
       <c r="I19">
-        <v>0.01894776172881275</v>
+        <v>0.01541852230012077</v>
       </c>
       <c r="J19">
-        <v>0.01982676843385757</v>
+        <v>0.01577688400891859</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>256.3297323333333</v>
+        <v>112.5801623333333</v>
       </c>
       <c r="N19">
-        <v>768.9891969999999</v>
+        <v>337.740487</v>
       </c>
       <c r="O19">
-        <v>0.5763100364383734</v>
+        <v>0.3220094980327655</v>
       </c>
       <c r="P19">
-        <v>0.5775636022518233</v>
+        <v>0.3238353453918694</v>
       </c>
       <c r="Q19">
-        <v>1231.226296349109</v>
+        <v>1528.121731539649</v>
       </c>
       <c r="R19">
-        <v>11081.03666714198</v>
+        <v>13753.09558385684</v>
       </c>
       <c r="S19">
-        <v>0.01091978525235769</v>
+        <v>0.00496491062626889</v>
       </c>
       <c r="T19">
-        <v>0.01145121979767152</v>
+        <v>0.005109112682235614</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>19.1586715</v>
+        <v>36.294159</v>
       </c>
       <c r="H20">
-        <v>38.317343</v>
+        <v>72.588318</v>
       </c>
       <c r="I20">
-        <v>0.07557608785780325</v>
+        <v>0.04122715910990092</v>
       </c>
       <c r="J20">
-        <v>0.05272142833331657</v>
+        <v>0.02812358169537615</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.9656040000000001</v>
+        <v>1.3231235</v>
       </c>
       <c r="N20">
-        <v>1.931208</v>
+        <v>2.646247</v>
       </c>
       <c r="O20">
-        <v>0.002170982161762564</v>
+        <v>0.003784488539009737</v>
       </c>
       <c r="P20">
-        <v>0.001450469595059265</v>
+        <v>0.002537298145238945</v>
       </c>
       <c r="Q20">
-        <v>18.499689835086</v>
+        <v>48.0216546856365</v>
       </c>
       <c r="R20">
-        <v>73.99875934034401</v>
+        <v>192.086618742546</v>
       </c>
       <c r="S20">
-        <v>0.0001640743385950911</v>
+        <v>0.0001560237111473509</v>
       </c>
       <c r="T20">
-        <v>7.647082880557176E-05</v>
+        <v>7.135791167315385E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>19.1586715</v>
+        <v>36.294159</v>
       </c>
       <c r="H21">
-        <v>38.317343</v>
+        <v>72.588318</v>
       </c>
       <c r="I21">
-        <v>0.07557608785780325</v>
+        <v>0.04122715910990092</v>
       </c>
       <c r="J21">
-        <v>0.05272142833331657</v>
+        <v>0.02812358169537615</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>1.140421</v>
       </c>
       <c r="N21">
-        <v>3.421263</v>
+        <v>3.421263000000001</v>
       </c>
       <c r="O21">
-        <v>0.002564025882141565</v>
+        <v>0.003261910323674263</v>
       </c>
       <c r="P21">
-        <v>0.00256960304545199</v>
+        <v>0.003280405897210136</v>
       </c>
       <c r="Q21">
-        <v>21.8489513107015</v>
+        <v>41.39062110093901</v>
       </c>
       <c r="R21">
-        <v>131.093707864209</v>
+        <v>248.3437266056341</v>
       </c>
       <c r="S21">
-        <v>0.0001937790453384124</v>
+        <v>0.0001344792959163473</v>
       </c>
       <c r="T21">
-        <v>0.0001354731428058691</v>
+        <v>9.225676324418296E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>19.1586715</v>
+        <v>36.294159</v>
       </c>
       <c r="H22">
-        <v>38.317343</v>
+        <v>72.588318</v>
       </c>
       <c r="I22">
-        <v>0.07557608785780325</v>
+        <v>0.04122715910990092</v>
       </c>
       <c r="J22">
-        <v>0.05272142833331657</v>
+        <v>0.02812358169537615</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>181.6731516666667</v>
+        <v>167.436325</v>
       </c>
       <c r="N22">
-        <v>545.019455</v>
+        <v>502.308975</v>
       </c>
       <c r="O22">
-        <v>0.4084585104654889</v>
+        <v>0.47891285505579</v>
       </c>
       <c r="P22">
-        <v>0.4093469725649807</v>
+        <v>0.4816283705203542</v>
       </c>
       <c r="Q22">
-        <v>3480.616233151344</v>
+        <v>6076.960601925675</v>
       </c>
       <c r="R22">
-        <v>20883.69739890807</v>
+        <v>36461.76361155405</v>
       </c>
       <c r="S22">
-        <v>0.03086969627320724</v>
+        <v>0.01974421647516197</v>
       </c>
       <c r="T22">
-        <v>0.02158135707754473</v>
+        <v>0.01354511482514008</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>19.1586715</v>
+        <v>36.294159</v>
       </c>
       <c r="H23">
-        <v>38.317343</v>
+        <v>72.588318</v>
       </c>
       <c r="I23">
-        <v>0.07557608785780325</v>
+        <v>0.04122715910990092</v>
       </c>
       <c r="J23">
-        <v>0.05272142833331657</v>
+        <v>0.02812358169537615</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.9304815</v>
+        <v>4.5905135</v>
       </c>
       <c r="N23">
-        <v>3.860963</v>
+        <v>9.181027</v>
       </c>
       <c r="O23">
-        <v>0.004340330922523763</v>
+        <v>0.01313010140695066</v>
       </c>
       <c r="P23">
-        <v>0.00289984788751331</v>
+        <v>0.008803034175754825</v>
       </c>
       <c r="Q23">
-        <v>36.98546089532725</v>
+        <v>166.6088268606465</v>
       </c>
       <c r="R23">
-        <v>147.941843581309</v>
+        <v>666.435307442586</v>
       </c>
       <c r="S23">
-        <v>0.0003280252311325961</v>
+        <v>0.0005413167798334886</v>
       </c>
       <c r="T23">
-        <v>0.0001528841225790525</v>
+        <v>0.0002475728508090291</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>19.1586715</v>
+        <v>36.294159</v>
       </c>
       <c r="H24">
-        <v>38.317343</v>
+        <v>72.588318</v>
       </c>
       <c r="I24">
-        <v>0.07557608785780325</v>
+        <v>0.04122715910990092</v>
       </c>
       <c r="J24">
-        <v>0.05272142833331657</v>
+        <v>0.02812358169537615</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.738101</v>
+        <v>62.54697533333334</v>
       </c>
       <c r="N24">
-        <v>8.214302999999999</v>
+        <v>187.640926</v>
       </c>
       <c r="O24">
-        <v>0.006156114129709732</v>
+        <v>0.1789011466418099</v>
       </c>
       <c r="P24">
-        <v>0.006169504655171325</v>
+        <v>0.1799155458695723</v>
       </c>
       <c r="Q24">
-        <v>52.4583775928215</v>
+        <v>2270.089867717078</v>
       </c>
       <c r="R24">
-        <v>314.750265556929</v>
+        <v>13620.53920630247</v>
       </c>
       <c r="S24">
-        <v>0.0004652550223296066</v>
+        <v>0.007375586037545613</v>
       </c>
       <c r="T24">
-        <v>0.000325265097529678</v>
+        <v>0.005059869552531113</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>19.1586715</v>
+        <v>36.294159</v>
       </c>
       <c r="H25">
-        <v>38.317343</v>
+        <v>72.588318</v>
       </c>
       <c r="I25">
-        <v>0.07557608785780325</v>
+        <v>0.04122715910990092</v>
       </c>
       <c r="J25">
-        <v>0.05272142833331657</v>
+        <v>0.02812358169537615</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>256.3297323333333</v>
+        <v>112.5801623333333</v>
       </c>
       <c r="N25">
-        <v>768.9891969999999</v>
+        <v>337.740487</v>
       </c>
       <c r="O25">
-        <v>0.5763100364383734</v>
+        <v>0.3220094980327655</v>
       </c>
       <c r="P25">
-        <v>0.5775636022518233</v>
+        <v>0.3238353453918694</v>
       </c>
       <c r="Q25">
-        <v>4910.937137457261</v>
+        <v>4086.002311971812</v>
       </c>
       <c r="R25">
-        <v>29465.62282474357</v>
+        <v>24516.01387183087</v>
       </c>
       <c r="S25">
-        <v>0.0435552579472003</v>
+        <v>0.01327553681029615</v>
       </c>
       <c r="T25">
-        <v>0.03044997806405166</v>
+        <v>0.009107409791978592</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>12.13711866666667</v>
+        <v>602.647105</v>
       </c>
       <c r="H26">
-        <v>36.411356</v>
+        <v>1807.941315</v>
       </c>
       <c r="I26">
-        <v>0.04787784720316248</v>
+        <v>0.6845572061597065</v>
       </c>
       <c r="J26">
-        <v>0.05009895116874039</v>
+        <v>0.7004678806973911</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.9656040000000001</v>
+        <v>1.3231235</v>
       </c>
       <c r="N26">
-        <v>1.931208</v>
+        <v>2.646247</v>
       </c>
       <c r="O26">
-        <v>0.002170982161762564</v>
+        <v>0.003784488539009737</v>
       </c>
       <c r="P26">
-        <v>0.001450469595059265</v>
+        <v>0.002537298145238945</v>
       </c>
       <c r="Q26">
-        <v>11.719650333008</v>
+        <v>797.3765468324674</v>
       </c>
       <c r="R26">
-        <v>70.317901998048</v>
+        <v>4784.259280994805</v>
       </c>
       <c r="S26">
-        <v>0.0001039419522216594</v>
+        <v>0.002590698901007935</v>
       </c>
       <c r="T26">
-        <v>7.266700541461677E-05</v>
+        <v>0.001777295854492945</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>12.13711866666667</v>
+        <v>602.647105</v>
       </c>
       <c r="H27">
-        <v>36.411356</v>
+        <v>1807.941315</v>
       </c>
       <c r="I27">
-        <v>0.04787784720316248</v>
+        <v>0.6845572061597065</v>
       </c>
       <c r="J27">
-        <v>0.05009895116874039</v>
+        <v>0.7004678806973911</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,25 +2114,25 @@
         <v>1.140421</v>
       </c>
       <c r="N27">
-        <v>3.421263</v>
+        <v>3.421263000000001</v>
       </c>
       <c r="O27">
-        <v>0.002564025882141565</v>
+        <v>0.003261910323674263</v>
       </c>
       <c r="P27">
-        <v>0.00256960304545199</v>
+        <v>0.003280405897210136</v>
       </c>
       <c r="Q27">
-        <v>13.84142500695866</v>
+        <v>687.2714141312051</v>
       </c>
       <c r="R27">
-        <v>124.572825062628</v>
+        <v>6185.442727180846</v>
       </c>
       <c r="S27">
-        <v>0.0001227600394101277</v>
+        <v>0.002232964217917958</v>
       </c>
       <c r="T27">
-        <v>0.0001287344174971458</v>
+        <v>0.002297818966646008</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>12.13711866666667</v>
+        <v>602.647105</v>
       </c>
       <c r="H28">
-        <v>36.411356</v>
+        <v>1807.941315</v>
       </c>
       <c r="I28">
-        <v>0.04787784720316248</v>
+        <v>0.6845572061597065</v>
       </c>
       <c r="J28">
-        <v>0.05009895116874039</v>
+        <v>0.7004678806973911</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>181.6731516666667</v>
+        <v>167.436325</v>
       </c>
       <c r="N28">
-        <v>545.019455</v>
+        <v>502.308975</v>
       </c>
       <c r="O28">
-        <v>0.4084585104654889</v>
+        <v>0.47891285505579</v>
       </c>
       <c r="P28">
-        <v>0.4093469725649807</v>
+        <v>0.4816283705203542</v>
       </c>
       <c r="Q28">
-        <v>2204.988600325664</v>
+        <v>100905.0165330891</v>
       </c>
       <c r="R28">
-        <v>19844.89740293098</v>
+        <v>908145.1487978022</v>
       </c>
       <c r="S28">
-        <v>0.01955611415289802</v>
+        <v>0.3278432460509601</v>
       </c>
       <c r="T28">
-        <v>0.02050785398960468</v>
+        <v>0.3373652039821304</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>12.13711866666667</v>
+        <v>602.647105</v>
       </c>
       <c r="H29">
-        <v>36.411356</v>
+        <v>1807.941315</v>
       </c>
       <c r="I29">
-        <v>0.04787784720316248</v>
+        <v>0.6845572061597065</v>
       </c>
       <c r="J29">
-        <v>0.05009895116874039</v>
+        <v>0.7004678806973911</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.9304815</v>
+        <v>4.5905135</v>
       </c>
       <c r="N29">
-        <v>3.860963</v>
+        <v>9.181027</v>
       </c>
       <c r="O29">
-        <v>0.004340330922523763</v>
+        <v>0.01313010140695066</v>
       </c>
       <c r="P29">
-        <v>0.00289984788751331</v>
+        <v>0.008803034175754825</v>
       </c>
       <c r="Q29">
-        <v>23.43048304930467</v>
+        <v>2766.459671238418</v>
       </c>
       <c r="R29">
-        <v>140.582898295828</v>
+        <v>16598.75802743051</v>
       </c>
       <c r="S29">
-        <v>0.000207805700719754</v>
+        <v>0.008988305535735772</v>
       </c>
       <c r="T29">
-        <v>0.0001452793377133043</v>
+        <v>0.006166242692797687</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>12.13711866666667</v>
+        <v>602.647105</v>
       </c>
       <c r="H30">
-        <v>36.411356</v>
+        <v>1807.941315</v>
       </c>
       <c r="I30">
-        <v>0.04787784720316248</v>
+        <v>0.6845572061597065</v>
       </c>
       <c r="J30">
-        <v>0.05009895116874039</v>
+        <v>0.7004678806973911</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.738101</v>
+        <v>62.54697533333334</v>
       </c>
       <c r="N30">
-        <v>8.214302999999999</v>
+        <v>187.640926</v>
       </c>
       <c r="O30">
-        <v>0.006156114129709732</v>
+        <v>0.1789011466418099</v>
       </c>
       <c r="P30">
-        <v>0.006169504655171325</v>
+        <v>0.1799155458695723</v>
       </c>
       <c r="Q30">
-        <v>33.23265675831866</v>
+        <v>37693.75361113974</v>
       </c>
       <c r="R30">
-        <v>299.093910824868</v>
+        <v>339243.7825002577</v>
       </c>
       <c r="S30">
-        <v>0.0002947414916674721</v>
+        <v>0.1224680691238853</v>
       </c>
       <c r="T30">
-        <v>0.0003090857124547447</v>
+        <v>0.1260250611197736</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>12.13711866666667</v>
+        <v>602.647105</v>
       </c>
       <c r="H31">
-        <v>36.411356</v>
+        <v>1807.941315</v>
       </c>
       <c r="I31">
-        <v>0.04787784720316248</v>
+        <v>0.6845572061597065</v>
       </c>
       <c r="J31">
-        <v>0.05009895116874039</v>
+        <v>0.7004678806973911</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>256.3297323333333</v>
+        <v>112.5801623333333</v>
       </c>
       <c r="N31">
-        <v>768.9891969999999</v>
+        <v>337.740487</v>
       </c>
       <c r="O31">
-        <v>0.5763100364383734</v>
+        <v>0.3220094980327655</v>
       </c>
       <c r="P31">
-        <v>0.5775636022518233</v>
+        <v>0.3238353453918694</v>
       </c>
       <c r="Q31">
-        <v>3111.10437912457</v>
+        <v>67846.10891061339</v>
       </c>
       <c r="R31">
-        <v>27999.93941212113</v>
+        <v>610614.9801955204</v>
       </c>
       <c r="S31">
-        <v>0.02759248386624544</v>
+        <v>0.2204339223301994</v>
       </c>
       <c r="T31">
-        <v>0.02893533070605589</v>
+        <v>0.2268362580815504</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>3.406546333333333</v>
+        <v>4.697360666666667</v>
       </c>
       <c r="H32">
-        <v>10.219639</v>
+        <v>14.092082</v>
       </c>
       <c r="I32">
-        <v>0.01343795914970814</v>
+        <v>0.005335812729570534</v>
       </c>
       <c r="J32">
-        <v>0.01406136028614685</v>
+        <v>0.005459829216389058</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.9656040000000001</v>
+        <v>1.3231235</v>
       </c>
       <c r="N32">
-        <v>1.931208</v>
+        <v>2.646247</v>
       </c>
       <c r="O32">
-        <v>0.002170982161762564</v>
+        <v>0.003784488539009737</v>
       </c>
       <c r="P32">
-        <v>0.001450469595059265</v>
+        <v>0.002537298145238945</v>
       </c>
       <c r="Q32">
-        <v>3.289374765652</v>
+        <v>6.215188286042334</v>
       </c>
       <c r="R32">
-        <v>19.73624859391201</v>
+        <v>37.291129716254</v>
       </c>
       <c r="S32">
-        <v>2.917356960451039E-05</v>
+        <v>2.019332212136195E-05</v>
       </c>
       <c r="T32">
-        <v>2.039557556022985E-05</v>
+        <v>1.385321454406536E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>3.406546333333333</v>
+        <v>4.697360666666667</v>
       </c>
       <c r="H33">
-        <v>10.219639</v>
+        <v>14.092082</v>
       </c>
       <c r="I33">
-        <v>0.01343795914970814</v>
+        <v>0.005335812729570534</v>
       </c>
       <c r="J33">
-        <v>0.01406136028614685</v>
+        <v>0.005459829216389058</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2486,25 +2486,25 @@
         <v>1.140421</v>
       </c>
       <c r="N33">
-        <v>3.421263</v>
+        <v>3.421263000000001</v>
       </c>
       <c r="O33">
-        <v>0.002564025882141565</v>
+        <v>0.003261910323674263</v>
       </c>
       <c r="P33">
-        <v>0.00256960304545199</v>
+        <v>0.003280405897210136</v>
       </c>
       <c r="Q33">
-        <v>3.884896976006333</v>
+        <v>5.356968748840668</v>
       </c>
       <c r="R33">
-        <v>34.964072784057</v>
+        <v>48.21271873956601</v>
       </c>
       <c r="S33">
-        <v>3.445527506301271E-05</v>
+        <v>1.740494262777867E-05</v>
       </c>
       <c r="T33">
-        <v>3.61321142144806E-05</v>
+        <v>1.791045595920286E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>3.406546333333333</v>
+        <v>4.697360666666667</v>
       </c>
       <c r="H34">
-        <v>10.219639</v>
+        <v>14.092082</v>
       </c>
       <c r="I34">
-        <v>0.01343795914970814</v>
+        <v>0.005335812729570534</v>
       </c>
       <c r="J34">
-        <v>0.01406136028614685</v>
+        <v>0.005459829216389058</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>181.6731516666667</v>
+        <v>167.436325</v>
       </c>
       <c r="N34">
-        <v>545.019455</v>
+        <v>502.308975</v>
       </c>
       <c r="O34">
-        <v>0.4084585104654889</v>
+        <v>0.47891285505579</v>
       </c>
       <c r="P34">
-        <v>0.4093469725649807</v>
+        <v>0.4816283705203542</v>
       </c>
       <c r="Q34">
-        <v>618.8780086751939</v>
+        <v>786.5088072262168</v>
       </c>
       <c r="R34">
-        <v>5569.902078076745</v>
+        <v>7078.579265035951</v>
       </c>
       <c r="S34">
-        <v>0.005488848777985873</v>
+        <v>0.002555389308361653</v>
       </c>
       <c r="T34">
-        <v>0.005755975263279665</v>
+        <v>0.002629608648808885</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>3.406546333333333</v>
+        <v>4.697360666666667</v>
       </c>
       <c r="H35">
-        <v>10.219639</v>
+        <v>14.092082</v>
       </c>
       <c r="I35">
-        <v>0.01343795914970814</v>
+        <v>0.005335812729570534</v>
       </c>
       <c r="J35">
-        <v>0.01406136028614685</v>
+        <v>0.005459829216389058</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.9304815</v>
+        <v>4.5905135</v>
       </c>
       <c r="N35">
-        <v>3.860963</v>
+        <v>9.181027</v>
       </c>
       <c r="O35">
-        <v>0.004340330922523763</v>
+        <v>0.01313010140695066</v>
       </c>
       <c r="P35">
-        <v>0.00289984788751331</v>
+        <v>0.008803034175754825</v>
       </c>
       <c r="Q35">
-        <v>6.576274675392834</v>
+        <v>21.56329755470234</v>
       </c>
       <c r="R35">
-        <v>39.457648052357</v>
+        <v>129.379785328214</v>
       </c>
       <c r="S35">
-        <v>5.832518963308936E-05</v>
+        <v>7.005976222775928E-05</v>
       </c>
       <c r="T35">
-        <v>4.077580592134651E-05</v>
+        <v>4.806306318565756E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>3.406546333333333</v>
+        <v>4.697360666666667</v>
       </c>
       <c r="H36">
-        <v>10.219639</v>
+        <v>14.092082</v>
       </c>
       <c r="I36">
-        <v>0.01343795914970814</v>
+        <v>0.005335812729570534</v>
       </c>
       <c r="J36">
-        <v>0.01406136028614685</v>
+        <v>0.005459829216389058</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.738101</v>
+        <v>62.54697533333334</v>
       </c>
       <c r="N36">
-        <v>8.214302999999999</v>
+        <v>187.640926</v>
       </c>
       <c r="O36">
-        <v>0.006156114129709732</v>
+        <v>0.1789011466418099</v>
       </c>
       <c r="P36">
-        <v>0.006169504655171325</v>
+        <v>0.1799155458695723</v>
       </c>
       <c r="Q36">
-        <v>9.327467921846333</v>
+        <v>293.8057017497703</v>
       </c>
       <c r="R36">
-        <v>83.947211296617</v>
+        <v>2644.251315747932</v>
       </c>
       <c r="S36">
-        <v>8.272561019598042E-05</v>
+        <v>0.000954583015586134</v>
       </c>
       <c r="T36">
-        <v>8.67516277434242E-05</v>
+        <v>0.0009823081538212768</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>3.406546333333333</v>
+        <v>4.697360666666667</v>
       </c>
       <c r="H37">
-        <v>10.219639</v>
+        <v>14.092082</v>
       </c>
       <c r="I37">
-        <v>0.01343795914970814</v>
+        <v>0.005335812729570534</v>
       </c>
       <c r="J37">
-        <v>0.01406136028614685</v>
+        <v>0.005459829216389058</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>256.3297323333333</v>
+        <v>112.5801623333333</v>
       </c>
       <c r="N37">
-        <v>768.9891969999999</v>
+        <v>337.740487</v>
       </c>
       <c r="O37">
-        <v>0.5763100364383734</v>
+        <v>0.3220094980327655</v>
       </c>
       <c r="P37">
-        <v>0.5775636022518233</v>
+        <v>0.3238353453918694</v>
       </c>
       <c r="Q37">
-        <v>873.1991098044314</v>
+        <v>528.8296263915483</v>
       </c>
       <c r="R37">
-        <v>7858.791988239882</v>
+        <v>4759.466637523935</v>
       </c>
       <c r="S37">
-        <v>0.00774443072722567</v>
+        <v>0.001718182378645848</v>
       </c>
       <c r="T37">
-        <v>0.008121329899427704</v>
+        <v>0.00176808568006997</v>
       </c>
     </row>
   </sheetData>
